--- a/DATA_goal/Junction_Flooding_269.xlsx
+++ b/DATA_goal/Junction_Flooding_269.xlsx
@@ -444,36 +444,36 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>41701.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>16.33</v>
+        <v>1.63</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>10.88</v>
+        <v>1.09</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.75</v>
+        <v>0.38</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>34.79</v>
+        <v>3.48</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>27.08</v>
+        <v>2.71</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>12.83</v>
+        <v>1.28</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>39.21</v>
+        <v>3.92</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>19.78</v>
+        <v>1.98</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.09</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>12.09</v>
+        <v>1.21</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>13.72</v>
+        <v>1.37</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>14.29</v>
+        <v>1.43</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.1</v>
+        <v>0.41</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12.78</v>
+        <v>1.28</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>17.7</v>
+        <v>1.77</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.15</v>
+        <v>1.11</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.15</v>
+        <v>0.32</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.02</v>
+        <v>0.2</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>187.2</v>
+        <v>18.72</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>35.47</v>
+        <v>3.55</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>11.8</v>
+        <v>1.18</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>23.04</v>
+        <v>2.3</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>11.67</v>
+        <v>1.17</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>20.07</v>
+        <v>2.01</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.42</v>
+        <v>1.04</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.34</v>
+        <v>0.93</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.22</v>
+        <v>1.12</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.44</v>
+        <v>1.44</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>35.15</v>
+        <v>3.51</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.32</v>
+        <v>0.63</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>14.75</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41701.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.85</v>
+        <v>0.09</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4" t="n">
         <v>0.02</v>
       </c>
-      <c r="K3" s="4" t="n">
-        <v>0.24</v>
-      </c>
       <c r="L3" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.34</v>
+        <v>0.13</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.68</v>
+        <v>0.37</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41701.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.28</v>
+        <v>0.73</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>21.11</v>
+        <v>2.11</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>17.16</v>
+        <v>1.72</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.43</v>
+        <v>0.74</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>26.3</v>
+        <v>2.63</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.87</v>
+        <v>1.19</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.93</v>
+        <v>0.49</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.77</v>
+        <v>0.78</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.67</v>
+        <v>0.77</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.71</v>
+        <v>1.07</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.64</v>
+        <v>0.66</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>109.53</v>
+        <v>10.95</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>21.23</v>
+        <v>2.12</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.08</v>
+        <v>0.71</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>13.96</v>
+        <v>1.4</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.34</v>
+        <v>0.73</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.46</v>
+        <v>0.15</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.86</v>
+        <v>1.29</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.21</v>
+        <v>0.62</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.54</v>
+        <v>0.55</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.57</v>
+        <v>0.66</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.92</v>
+        <v>0.89</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>23.55</v>
+        <v>2.35</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.95</v>
+        <v>0.4</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.81</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41701.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>19.08</v>
+        <v>1.91</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.36</v>
+        <v>1.44</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>41.68</v>
+        <v>4.17</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>34.2</v>
+        <v>3.42</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>14.89</v>
+        <v>1.49</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>55.8</v>
+        <v>5.58</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>23.27</v>
+        <v>2.33</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.18</v>
+        <v>1.02</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.45</v>
+        <v>1.54</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.69</v>
+        <v>1.67</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.64</v>
+        <v>1.76</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.83</v>
+        <v>0.48</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.04</v>
+        <v>1.5</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>21.35</v>
+        <v>2.14</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.69</v>
+        <v>1.27</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>221.72</v>
+        <v>22.17</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>42</v>
+        <v>4.2</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.88</v>
+        <v>1.39</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>28.16</v>
+        <v>2.82</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.76</v>
+        <v>1.48</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.31</v>
+        <v>0.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>27.61</v>
+        <v>2.76</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.22</v>
+        <v>1.22</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.82</v>
+        <v>1.08</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.76</v>
+        <v>1.28</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.59</v>
+        <v>1.76</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>50.72</v>
+        <v>5.07</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.86</v>
+        <v>0.79</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>17.31</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41701.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>7.38</v>
+        <v>0.74</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>5.56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="M6" s="4" t="n">
         <v>0.68</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>16.22</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>13.17</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>26.84</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.85</v>
-      </c>
       <c r="N6" s="4" t="n">
-        <v>1.89</v>
+        <v>0.19</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>5.87</v>
+        <v>0.59</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>8.31</v>
+        <v>0.83</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>5.06</v>
+        <v>0.51</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>82.09</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>16.59</v>
+        <v>1.66</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>11.01</v>
+        <v>1.1</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>5.71</v>
+        <v>0.57</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>12.6</v>
+        <v>1.26</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>4.74</v>
+        <v>0.47</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>4.26</v>
+        <v>0.43</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>5.03</v>
+        <v>0.5</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>6.85</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>24.76</v>
+        <v>2.48</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>3.05</v>
+        <v>0.3</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>6.73</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41701.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>19.41</v>
+        <v>1.94</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>14.59</v>
+        <v>1.46</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>42.37</v>
+        <v>4.24</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>34.82</v>
+        <v>3.48</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>15.17</v>
+        <v>1.52</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>56.95</v>
+        <v>5.7</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>23.62</v>
+        <v>2.36</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>10.42</v>
+        <v>1.04</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>15.71</v>
+        <v>1.57</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>16.98</v>
+        <v>1.7</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>17.96</v>
+        <v>1.8</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>15.26</v>
+        <v>1.53</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>21.72</v>
+        <v>2.17</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>12.82</v>
+        <v>1.28</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>225.1</v>
+        <v>22.51</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>42.61</v>
+        <v>4.26</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>14.09</v>
+        <v>1.41</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>28.67</v>
+        <v>2.87</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>15.05</v>
+        <v>1.51</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>28.03</v>
+        <v>2.8</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>10.98</v>
+        <v>1.1</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>17.88</v>
+        <v>1.79</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>51.61</v>
+        <v>5.16</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>8.01</v>
+        <v>0.8</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>17.58</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41701.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>13.95</v>
+        <v>1.39</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>10.48</v>
+        <v>1.05</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>30.47</v>
+        <v>3.05</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>25</v>
+        <v>2.5</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>10.88</v>
+        <v>1.09</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>44.51</v>
+        <v>4.45</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>16.98</v>
+        <v>1.7</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>7.48</v>
+        <v>0.75</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>12.21</v>
+        <v>1.22</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>12.92</v>
+        <v>1.29</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.53</v>
+        <v>0.35</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>10.98</v>
+        <v>1.1</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>15.63</v>
+        <v>1.56</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>9.25</v>
+        <v>0.92</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>159.87</v>
+        <v>15.99</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>30.76</v>
+        <v>3.08</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>10.13</v>
+        <v>1.01</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>20.66</v>
+        <v>2.07</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>10.82</v>
+        <v>1.08</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.63</v>
+        <v>0.16</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>21.42</v>
+        <v>2.14</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>8.92</v>
+        <v>0.89</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>7.91</v>
+        <v>0.79</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>9.31</v>
+        <v>0.93</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>12.86</v>
+        <v>1.29</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>40.57</v>
+        <v>4.06</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>5.76</v>
+        <v>0.58</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41701.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>18.18</v>
+        <v>1.82</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>13.66</v>
+        <v>1.37</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>39.68</v>
+        <v>3.97</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>32.63</v>
+        <v>3.26</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>14.22</v>
+        <v>1.42</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>55.32</v>
+        <v>5.53</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>22.1</v>
+        <v>2.21</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>14.72</v>
+        <v>1.47</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>15.91</v>
+        <v>1.59</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>16.83</v>
+        <v>1.68</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.59</v>
+        <v>0.46</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>14.29</v>
+        <v>1.43</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>20.36</v>
+        <v>2.04</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>11.97</v>
+        <v>1.2</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>210.21</v>
+        <v>21.02</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>39.94</v>
+        <v>3.99</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>13.19</v>
+        <v>1.32</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>26.91</v>
+        <v>2.69</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>14.12</v>
+        <v>1.41</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.04</v>
+        <v>0.2</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>26.95</v>
+        <v>2.69</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>11.62</v>
+        <v>1.16</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>10.27</v>
+        <v>1.03</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>12.09</v>
+        <v>1.21</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>16.74</v>
+        <v>1.67</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>50.23</v>
+        <v>5.02</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>7.51</v>
+        <v>0.75</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>16.45</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41701.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>6.37</v>
+        <v>0.64</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>4.79</v>
+        <v>0.48</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>13.97</v>
+        <v>1.4</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>11.39</v>
+        <v>1.14</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>4.93</v>
+        <v>0.49</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>24.18</v>
+        <v>2.42</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>7.79</v>
+        <v>0.78</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>3.41</v>
+        <v>0.34</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>5.13</v>
+        <v>0.51</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>5.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>5.93</v>
+        <v>0.59</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>1.62</v>
+        <v>0.16</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>5.04</v>
+        <v>0.5</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>7.19</v>
+        <v>0.72</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>4.3</v>
+        <v>0.43</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>69.45999999999999</v>
+        <v>6.95</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>14.3</v>
+        <v>1.43</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>4.65</v>
+        <v>0.47</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>9.58</v>
+        <v>0.96</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>4.96</v>
+        <v>0.5</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>11.26</v>
+        <v>1.13</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>3.65</v>
+        <v>0.37</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>4.3</v>
+        <v>0.43</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>22.31</v>
+        <v>2.23</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>2.65</v>
+        <v>0.26</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>5.78</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_269.xlsx
+++ b/DATA_goal/Junction_Flooding_269.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,36 +444,36 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41701.34027777778</v>
+        <v>44950.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.63</v>
+        <v>0.13</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.01</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.48</v>
+        <v>0.48</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.71</v>
+        <v>0.14</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.28</v>
+        <v>0.1</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.92</v>
+        <v>0.26</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.98</v>
+        <v>0.13</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.21</v>
+        <v>0.14</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.37</v>
+        <v>0.23</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.43</v>
+        <v>0.11</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.28</v>
+        <v>0.11</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.77</v>
+        <v>0.39</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.11</v>
+        <v>0.05</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>18.72</v>
+        <v>1.44</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.55</v>
+        <v>0.37</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.18</v>
+        <v>0.21</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.3</v>
+        <v>0.16</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.17</v>
+        <v>0.16</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.32</v>
+        <v>0.18</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.01</v>
+        <v>0.23</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.93</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.12</v>
+        <v>0.16</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.44</v>
+        <v>0.14</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>0.21</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.51</v>
+        <v>0.28</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.63</v>
+        <v>0.02</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.48</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41701.34722222222</v>
+        <v>44950.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.04</v>
+        <v>1.5</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.03</v>
+        <v>1.12</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.09</v>
+        <v>3.36</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.04</v>
+        <v>2.67</v>
       </c>
       <c r="G3" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="R3" s="4" t="n">
         <v>0.01</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4" t="n">
+      <c r="S3" s="4" t="n">
         <v>0.02</v>
       </c>
-      <c r="L3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>17.54</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.19</v>
+        <v>3.34</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.04</v>
+        <v>1.15</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.1</v>
+        <v>2.23</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.03</v>
+        <v>1.22</v>
       </c>
       <c r="Y3" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="Z3" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.12</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>0.84</v>
+        <v>3.56</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.6</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.05</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41701.35416666666</v>
+        <v>44950.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.7</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.52</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.11</v>
+        <v>1.57</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.72</v>
+        <v>1.23</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.19</v>
+        <v>0.85</v>
       </c>
       <c r="J4" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AC4" s="4" t="n">
         <v>0.49</v>
       </c>
-      <c r="K4" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Q4" s="4" t="n">
+      <c r="AD4" s="4" t="n">
         <v>0.66</v>
       </c>
-      <c r="R4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.89</v>
-      </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.35</v>
+        <v>2.28</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41701.36111111111</v>
+        <v>44950.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.91</v>
+        <v>0.7</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.44</v>
+        <v>0.52</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.17</v>
+        <v>1.57</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.42</v>
+        <v>1.25</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.49</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.58</v>
+        <v>2.27</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.33</v>
+        <v>0.85</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.02</v>
+        <v>0.39</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.54</v>
+        <v>0.59</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.67</v>
+        <v>0.65</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.76</v>
+        <v>0.65</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.18</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.5</v>
+        <v>0.55</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.14</v>
+        <v>0.84</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.27</v>
+        <v>0.44</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>22.17</v>
+        <v>7.83</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.2</v>
+        <v>1.58</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.39</v>
+        <v>0.54</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.82</v>
+        <v>1.05</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.48</v>
+        <v>0.58</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.76</v>
+        <v>1.11</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.22</v>
+        <v>0.46</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.08</v>
+        <v>0.4</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.28</v>
+        <v>0.49</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.76</v>
+        <v>0.66</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.07</v>
+        <v>2.08</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.28</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.73</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41701.36805555555</v>
+        <v>44950.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.74</v>
+        <v>21.97</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>16.47</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.62</v>
+        <v>48.1</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.32</v>
+        <v>39.36</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.57</v>
+        <v>17.36</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>2.68</v>
+        <v>63.94</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.91</v>
+        <v>26.62</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.39</v>
+        <v>11.99</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.59</v>
+        <v>17.97</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.65</v>
+        <v>19.48</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.68</v>
+        <v>20.29</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.19</v>
+        <v>5.55</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.59</v>
+        <v>17.17</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.83</v>
+        <v>25.02</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.51</v>
+        <v>14.12</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.54</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>255.77</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>1.66</v>
+        <v>48.28</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.54</v>
+        <v>16.1</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.1</v>
+        <v>32.59</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.57</v>
+        <v>17.31</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.1</v>
+        <v>2.54</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.26</v>
+        <v>31.91</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.47</v>
+        <v>14.09</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.43</v>
+        <v>12.3</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.5</v>
+        <v>14.68</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>20.28</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.29</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>2.48</v>
+        <v>58.11</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.3</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41701.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>22.51</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41701.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41701.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>21.02</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41701.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41701.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>24.64</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>20.22</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>33.64</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>13.73</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>127.77</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>24.75</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>16.64</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>10.21</v>
+        <v>20.09</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_269.xlsx
+++ b/DATA_goal/Junction_Flooding_269.xlsx
@@ -446,7 +446,7 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
@@ -463,7 +463,7 @@
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
@@ -655,52 +655,52 @@
         <v>44950.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.28</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.87</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0</v>
@@ -709,49 +709,49 @@
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.39</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.71</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.12</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.55</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.31</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.09</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44950.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.5</v>
+        <v>15.05</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.12</v>
+        <v>11.21</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.36</v>
+        <v>33.6</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.67</v>
+        <v>26.68</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.19</v>
+        <v>11.94</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.92</v>
+        <v>39.19</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.82</v>
+        <v>18.21</v>
       </c>
       <c r="J3" s="4" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>13.78</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>175.36</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>22.28</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.82</v>
       </c>
-      <c r="K3" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>17.54</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>3.56</v>
+        <v>35.65</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.6</v>
+        <v>6.01</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.42</v>
+        <v>14.23</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44950.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.7</v>
+        <v>6.99</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.19</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.57</v>
+        <v>15.75</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.31</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.44</v>
+        <v>24.4</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.87</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.88</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.56</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.46</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.45</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.6</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.36</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>7.83</v>
+        <v>78.28</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.59</v>
+        <v>15.9</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.43</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.56</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.82</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.21</v>
+        <v>12.07</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.58</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.93</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.59</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.28</v>
+        <v>22.76</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.75</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44950.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.7</v>
+        <v>7.04</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.25</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.57</v>
+        <v>15.72</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.48</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.63</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.27</v>
+        <v>22.68</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.87</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.88</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.51</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.51</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.49</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.43</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.42</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>7.83</v>
+        <v>78.31999999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.58</v>
+        <v>15.77</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.54</v>
+        <v>5.37</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.51</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.76</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.11</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.59</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.4</v>
+        <v>3.95</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.89</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.6</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.08</v>
+        <v>20.78</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_269.xlsx
+++ b/DATA_goal/Junction_Flooding_269.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,38 +443,38 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -658,97 +658,97 @@
         <v>1.29</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.74</v>
+        <v>0.735</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.12</v>
+        <v>0.124</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.83</v>
+        <v>4.827</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.42</v>
+        <v>1.423</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.98</v>
+        <v>0.979</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.64</v>
+        <v>2.643</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.33</v>
+        <v>1.329</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.54</v>
+        <v>0.541</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.44</v>
+        <v>1.443</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.28</v>
+        <v>2.279</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.08</v>
+        <v>1.076</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.42</v>
+        <v>0.423</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.072</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.87</v>
+        <v>3.872</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.51</v>
+        <v>0.514</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>14.39</v>
+        <v>14.386</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.71</v>
+        <v>3.712</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.12</v>
+        <v>2.121</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.55</v>
+        <v>1.552</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.64</v>
+        <v>1.645</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.82</v>
+        <v>1.823</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.31</v>
+        <v>2.314</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.97</v>
+        <v>0.973</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.59</v>
+        <v>1.589</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.43</v>
+        <v>1.435</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.09</v>
+        <v>2.091</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.77</v>
+        <v>2.771</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.19</v>
+        <v>0.187</v>
       </c>
       <c r="AH2" s="4" t="n">
         <v>2.45</v>
@@ -759,100 +759,100 @@
         <v>44950.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>15.05</v>
+        <v>15.045</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11.21</v>
+        <v>11.206</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.59</v>
+        <v>0.588</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>33.6</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>26.68</v>
+        <v>26.676</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>11.94</v>
+        <v>11.943</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>39.19</v>
+        <v>39.186</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>18.21</v>
+        <v>18.209</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.19</v>
+        <v>8.193</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>12.53</v>
+        <v>12.526</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>13.78</v>
+        <v>13.784</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>13.91</v>
+        <v>13.906</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.86</v>
+        <v>3.856</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>11.77</v>
+        <v>11.768</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>17.99</v>
+        <v>17.993</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>9.541</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.145</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.24</v>
+        <v>0.241</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>175.36</v>
+        <v>175.358</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>33.4</v>
+        <v>33.401</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>11.45</v>
+        <v>11.452</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>22.28</v>
+        <v>22.282</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>12.21</v>
+        <v>12.206</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.31</v>
+        <v>2.307</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>20.68</v>
+        <v>20.681</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.76</v>
+        <v>9.757</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>8.462999999999999</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.37</v>
+        <v>10.374</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>14.05</v>
+        <v>14.055</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.82</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>35.65</v>
+        <v>35.649</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.01</v>
+        <v>6.008</v>
       </c>
       <c r="AH3" s="4" t="n">
         <v>14.23</v>
@@ -863,103 +863,103 @@
         <v>44950.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.99</v>
+        <v>6.986</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.19</v>
+        <v>5.188</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.31</v>
+        <v>0.311</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>15.75</v>
+        <v>15.746</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>12.31</v>
+        <v>12.314</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.6</v>
+        <v>5.598</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>24.4</v>
+        <v>24.401</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.470000000000001</v>
+        <v>8.473000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.87</v>
+        <v>3.867</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.88</v>
+        <v>5.884</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.56</v>
+        <v>6.564</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.46</v>
+        <v>6.459</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.81</v>
+        <v>1.813</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.45</v>
+        <v>5.451</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.6</v>
+        <v>8.603</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.36</v>
+        <v>4.361</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.076</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>78.28</v>
+        <v>78.279</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>15.9</v>
+        <v>15.896</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.43</v>
+        <v>5.433</v>
       </c>
       <c r="W4" s="4" t="n">
         <v>10.56</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.82</v>
+        <v>5.819</v>
       </c>
       <c r="Y4" s="4" t="n">
         <v>1.21</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.07</v>
+        <v>12.073</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.58</v>
+        <v>4.576</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.93</v>
+        <v>3.935</v>
       </c>
       <c r="AC4" s="4" t="n">
         <v>4.93</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.59</v>
+        <v>6.592</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.505</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>22.76</v>
+        <v>22.758</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>2.75</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.74</v>
+        <v>6.737</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>6.68</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44950.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>21.97</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>39.36</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>17.36</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>63.94</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>26.62</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>17.97</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>19.48</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>20.29</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>17.17</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>25.02</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14.12</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>255.77</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>48.28</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>32.59</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>17.31</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>31.91</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>14.68</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>20.28</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>58.11</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>20.09</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_269.xlsx
+++ b/DATA_goal/Junction_Flooding_269.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44950.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.04</v>
+        <v>7.041</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.25</v>
+        <v>5.245</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.306</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>15.72</v>
+        <v>15.716</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.48</v>
+        <v>12.476</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.63</v>
+        <v>5.628</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>22.68</v>
+        <v>22.682</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>8.542999999999999</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.87</v>
+        <v>3.874</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.88</v>
+        <v>5.876</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.51</v>
+        <v>6.513</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.51</v>
+        <v>6.506</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>1.81</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.49</v>
+        <v>5.493</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.43</v>
+        <v>8.430999999999999</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.42</v>
+        <v>4.423</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.074</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.073</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>78.31999999999999</v>
+        <v>78.319</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>15.77</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.37</v>
+        <v>5.374</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.51</v>
+        <v>10.514</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.76</v>
+        <v>5.758</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.09</v>
+        <v>1.086</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.11</v>
+        <v>11.111</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.59</v>
+        <v>4.586</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.95</v>
+        <v>3.952</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.89</v>
+        <v>4.891</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.6</v>
+        <v>6.603</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.366</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>20.78</v>
+        <v>20.775</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.8</v>
+        <v>2.804</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.68</v>
+        <v>6.678</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44950.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>21.97</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>39.36</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>17.36</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>63.94</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>26.62</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>17.97</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>19.48</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>17.17</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>25.02</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>255.77</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>48.28</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>32.59</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>17.31</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>31.91</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>20.28</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>58.11</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>20.09</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_269.xlsx
+++ b/DATA_goal/Junction_Flooding_269.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44950.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.041</v>
+        <v>7.04</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.245</v>
+        <v>5.25</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.306</v>
+        <v>0.31</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>15.716</v>
+        <v>15.72</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.476</v>
+        <v>12.48</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.628</v>
+        <v>5.63</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>22.682</v>
+        <v>22.68</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.542999999999999</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.874</v>
+        <v>3.87</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.876</v>
+        <v>5.88</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.513</v>
+        <v>6.51</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.506</v>
+        <v>6.51</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>1.81</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.493</v>
+        <v>5.49</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.430999999999999</v>
+        <v>8.43</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.423</v>
+        <v>4.42</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.074</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.073</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>78.319</v>
+        <v>78.31999999999999</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>15.77</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.374</v>
+        <v>5.37</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.514</v>
+        <v>10.51</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.758</v>
+        <v>5.76</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.086</v>
+        <v>1.09</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.111</v>
+        <v>11.11</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.586</v>
+        <v>4.59</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.952</v>
+        <v>3.95</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.891</v>
+        <v>4.89</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.603</v>
+        <v>6.6</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.366</v>
+        <v>0.37</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>20.775</v>
+        <v>20.78</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.804</v>
+        <v>2.8</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.678</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44950.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>21.97</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>39.36</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>17.36</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>63.94</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>26.62</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>17.97</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>19.48</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>20.29</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>17.17</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>25.02</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14.12</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>255.77</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>48.28</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>32.59</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>17.31</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>31.91</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>14.68</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>20.28</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>58.11</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>20.09</v>
+        <v>6.68</v>
       </c>
     </row>
   </sheetData>
